--- a/intel_IP/IRIS/HW_IP/Interface/花費時間測試.xlsx
+++ b/intel_IP/IRIS/HW_IP/Interface/花費時間測試.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_FPGA\intel_IP\IRIS\HW_IP\Interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6130505-3151-4E14-AE4F-F3B0D7E78EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47D158C-7DAB-408B-A0DC-7E6D5518B2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-885" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOG" sheetId="1" r:id="rId1"/>
@@ -13920,54 +13920,57 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901605D4-1433-4705-BB27-EF4A81A29641}">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L22"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="12" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>89522</v>
-      </c>
-      <c r="B1">
-        <v>89533</v>
-      </c>
-      <c r="C1">
-        <v>89537</v>
-      </c>
-      <c r="D1">
-        <v>89538</v>
-      </c>
-      <c r="E1">
-        <v>89540</v>
-      </c>
-      <c r="F1">
-        <v>89542</v>
-      </c>
-      <c r="G1">
-        <v>89543</v>
-      </c>
-      <c r="H1">
-        <v>89545</v>
-      </c>
-      <c r="I1">
-        <v>89546</v>
-      </c>
-      <c r="J1">
-        <v>89550</v>
-      </c>
-      <c r="K1">
-        <v>89556</v>
-      </c>
-      <c r="L1">
-        <v>89574</v>
+      <c r="A1" s="2">
+        <v>78168</v>
+      </c>
+      <c r="B1" s="2">
+        <v>78190</v>
+      </c>
+      <c r="C1" s="2">
+        <v>78194</v>
+      </c>
+      <c r="D1" s="2">
+        <v>78195</v>
+      </c>
+      <c r="E1" s="2">
+        <v>78196</v>
+      </c>
+      <c r="F1" s="2">
+        <v>78199</v>
+      </c>
+      <c r="G1" s="2">
+        <v>78200</v>
+      </c>
+      <c r="H1" s="2">
+        <v>78202</v>
+      </c>
+      <c r="I1" s="2">
+        <v>78204</v>
+      </c>
+      <c r="J1" s="2">
+        <v>78210</v>
+      </c>
+      <c r="K1" s="2">
+        <v>78214</v>
+      </c>
+      <c r="L1" s="2">
+        <v>78219</v>
       </c>
       <c r="M1">
         <f t="shared" ref="M1:W15" si="0">B1-A1</f>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N1">
         <f t="shared" si="0"/>
@@ -13979,1458 +13982,1649 @@
       </c>
       <c r="P1">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q1">
+      <c r="T1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="T1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="U1">
         <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="V1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
       <c r="W1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="X1">
         <f>SUM(M1:W1)</f>
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>89716</v>
-      </c>
-      <c r="B2">
-        <v>89727</v>
-      </c>
-      <c r="C2">
-        <v>89730</v>
-      </c>
-      <c r="D2">
-        <v>89732</v>
-      </c>
-      <c r="E2">
-        <v>89734</v>
-      </c>
-      <c r="F2">
-        <v>89735</v>
-      </c>
-      <c r="G2">
-        <v>89737</v>
-      </c>
-      <c r="H2">
-        <v>89739</v>
-      </c>
-      <c r="I2">
-        <v>89740</v>
-      </c>
-      <c r="J2">
-        <v>89744</v>
-      </c>
-      <c r="K2">
-        <v>89749</v>
-      </c>
-      <c r="L2">
-        <v>89768</v>
+      <c r="A2" s="2">
+        <v>78358</v>
+      </c>
+      <c r="B2" s="2">
+        <v>78380</v>
+      </c>
+      <c r="C2" s="2">
+        <v>78384</v>
+      </c>
+      <c r="D2" s="2">
+        <v>78385</v>
+      </c>
+      <c r="E2" s="2">
+        <v>78386</v>
+      </c>
+      <c r="F2" s="2">
+        <v>78389</v>
+      </c>
+      <c r="G2" s="2">
+        <v>78390</v>
+      </c>
+      <c r="H2" s="2">
+        <v>78391</v>
+      </c>
+      <c r="I2" s="2">
+        <v>78394</v>
+      </c>
+      <c r="J2" s="2">
+        <v>78400</v>
+      </c>
+      <c r="K2" s="2">
+        <v>78404</v>
+      </c>
+      <c r="L2" s="2">
+        <v>78408</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O2">
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>78548</v>
+      </c>
+      <c r="B3" s="2">
+        <v>78570</v>
+      </c>
+      <c r="C3" s="2">
+        <v>78573</v>
+      </c>
+      <c r="D3" s="2">
+        <v>78575</v>
+      </c>
+      <c r="E3" s="2">
+        <v>78576</v>
+      </c>
+      <c r="F3" s="2">
+        <v>78579</v>
+      </c>
+      <c r="G3" s="2">
+        <v>78580</v>
+      </c>
+      <c r="H3" s="2">
+        <v>78581</v>
+      </c>
+      <c r="I3" s="2">
+        <v>78584</v>
+      </c>
+      <c r="J3" s="2">
+        <v>78589</v>
+      </c>
+      <c r="K3" s="2">
+        <v>78594</v>
+      </c>
+      <c r="L3" s="2">
+        <v>78598</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P2">
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>78737</v>
+      </c>
+      <c r="B4" s="2">
+        <v>78759</v>
+      </c>
+      <c r="C4" s="2">
+        <v>78763</v>
+      </c>
+      <c r="D4" s="2">
+        <v>78764</v>
+      </c>
+      <c r="E4" s="2">
+        <v>78765</v>
+      </c>
+      <c r="F4" s="2">
+        <v>78768</v>
+      </c>
+      <c r="G4" s="2">
+        <v>78769</v>
+      </c>
+      <c r="H4" s="2">
+        <v>78771</v>
+      </c>
+      <c r="I4" s="2">
+        <v>78773</v>
+      </c>
+      <c r="J4" s="2">
+        <v>78779</v>
+      </c>
+      <c r="K4" s="2">
+        <v>78783</v>
+      </c>
+      <c r="L4" s="2">
+        <v>78788</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q2">
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>78927</v>
+      </c>
+      <c r="B5" s="2">
+        <v>78949</v>
+      </c>
+      <c r="C5" s="2">
+        <v>78953</v>
+      </c>
+      <c r="D5" s="2">
+        <v>78954</v>
+      </c>
+      <c r="E5" s="2">
+        <v>78955</v>
+      </c>
+      <c r="F5" s="2">
+        <v>78958</v>
+      </c>
+      <c r="G5" s="2">
+        <v>78959</v>
+      </c>
+      <c r="H5" s="2">
+        <v>78960</v>
+      </c>
+      <c r="I5" s="2">
+        <v>78963</v>
+      </c>
+      <c r="J5" s="2">
+        <v>78969</v>
+      </c>
+      <c r="K5" s="2">
+        <v>78973</v>
+      </c>
+      <c r="L5" s="2">
+        <v>78977</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R2">
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>79117</v>
+      </c>
+      <c r="B6" s="2">
+        <v>79139</v>
+      </c>
+      <c r="C6" s="2">
+        <v>79143</v>
+      </c>
+      <c r="D6" s="2">
+        <v>79144</v>
+      </c>
+      <c r="E6" s="2">
+        <v>79145</v>
+      </c>
+      <c r="F6" s="2">
+        <v>79148</v>
+      </c>
+      <c r="G6" s="2">
+        <v>79149</v>
+      </c>
+      <c r="H6" s="2">
+        <v>79150</v>
+      </c>
+      <c r="I6" s="2">
+        <v>79153</v>
+      </c>
+      <c r="J6" s="2">
+        <v>79159</v>
+      </c>
+      <c r="K6" s="2">
+        <v>79163</v>
+      </c>
+      <c r="L6" s="2">
+        <v>79168</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>79308</v>
+      </c>
+      <c r="B7" s="2">
+        <v>79330</v>
+      </c>
+      <c r="C7" s="2">
+        <v>79334</v>
+      </c>
+      <c r="D7" s="2">
+        <v>79335</v>
+      </c>
+      <c r="E7" s="2">
+        <v>79336</v>
+      </c>
+      <c r="F7" s="2">
+        <v>79339</v>
+      </c>
+      <c r="G7" s="2">
+        <v>79340</v>
+      </c>
+      <c r="H7" s="2">
+        <v>79341</v>
+      </c>
+      <c r="I7" s="2">
+        <v>79344</v>
+      </c>
+      <c r="J7" s="2">
+        <v>79350</v>
+      </c>
+      <c r="K7" s="2">
+        <v>79354</v>
+      </c>
+      <c r="L7" s="2">
+        <v>79358</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>79499</v>
+      </c>
+      <c r="B8" s="2">
+        <v>79520</v>
+      </c>
+      <c r="C8" s="2">
+        <v>79524</v>
+      </c>
+      <c r="D8" s="2">
+        <v>79525</v>
+      </c>
+      <c r="E8" s="2">
+        <v>79527</v>
+      </c>
+      <c r="F8" s="2">
+        <v>79530</v>
+      </c>
+      <c r="G8" s="2">
+        <v>79531</v>
+      </c>
+      <c r="H8" s="2">
+        <v>79532</v>
+      </c>
+      <c r="I8" s="2">
+        <v>79535</v>
+      </c>
+      <c r="J8" s="2">
+        <v>79540</v>
+      </c>
+      <c r="K8" s="2">
+        <v>79545</v>
+      </c>
+      <c r="L8" s="2">
+        <v>79549</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="S2">
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>79689</v>
+      </c>
+      <c r="B9" s="2">
+        <v>79710</v>
+      </c>
+      <c r="C9" s="2">
+        <v>79714</v>
+      </c>
+      <c r="D9" s="2">
+        <v>79715</v>
+      </c>
+      <c r="E9" s="2">
+        <v>79717</v>
+      </c>
+      <c r="F9" s="2">
+        <v>79720</v>
+      </c>
+      <c r="G9" s="2">
+        <v>79721</v>
+      </c>
+      <c r="H9" s="2">
+        <v>79722</v>
+      </c>
+      <c r="I9" s="2">
+        <v>79725</v>
+      </c>
+      <c r="J9" s="2">
+        <v>79730</v>
+      </c>
+      <c r="K9" s="2">
+        <v>79735</v>
+      </c>
+      <c r="L9" s="2">
+        <v>79739</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="T2">
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U2">
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="V2">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>79879</v>
+      </c>
+      <c r="B10" s="2">
+        <v>79900</v>
+      </c>
+      <c r="C10" s="2">
+        <v>79904</v>
+      </c>
+      <c r="D10" s="2">
+        <v>79906</v>
+      </c>
+      <c r="E10" s="2">
+        <v>79907</v>
+      </c>
+      <c r="F10" s="2">
+        <v>79910</v>
+      </c>
+      <c r="G10" s="2">
+        <v>79911</v>
+      </c>
+      <c r="H10" s="2">
+        <v>79912</v>
+      </c>
+      <c r="I10" s="2">
+        <v>79915</v>
+      </c>
+      <c r="J10" s="2">
+        <v>79921</v>
+      </c>
+      <c r="K10" s="2">
+        <v>79925</v>
+      </c>
+      <c r="L10" s="2">
+        <v>79929</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>80069</v>
+      </c>
+      <c r="B11" s="2">
+        <v>80091</v>
+      </c>
+      <c r="C11" s="2">
+        <v>80095</v>
+      </c>
+      <c r="D11" s="2">
+        <v>80096</v>
+      </c>
+      <c r="E11" s="2">
+        <v>80097</v>
+      </c>
+      <c r="F11" s="2">
+        <v>80100</v>
+      </c>
+      <c r="G11" s="2">
+        <v>80101</v>
+      </c>
+      <c r="H11" s="2">
+        <v>80102</v>
+      </c>
+      <c r="I11" s="2">
+        <v>80105</v>
+      </c>
+      <c r="J11" s="2">
+        <v>80111</v>
+      </c>
+      <c r="K11" s="2">
+        <v>80115</v>
+      </c>
+      <c r="L11" s="2">
+        <v>80120</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="W2">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>89909</v>
-      </c>
-      <c r="B3">
-        <v>89919</v>
-      </c>
-      <c r="C3">
-        <v>89923</v>
-      </c>
-      <c r="D3">
-        <v>89925</v>
-      </c>
-      <c r="E3">
-        <v>89927</v>
-      </c>
-      <c r="F3">
-        <v>89928</v>
-      </c>
-      <c r="G3">
-        <v>89930</v>
-      </c>
-      <c r="H3">
-        <v>89931</v>
-      </c>
-      <c r="I3">
-        <v>89932</v>
-      </c>
-      <c r="J3">
-        <v>89936</v>
-      </c>
-      <c r="K3">
-        <v>89942</v>
-      </c>
-      <c r="L3">
-        <v>89960</v>
-      </c>
-      <c r="M3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N3">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>80258</v>
+      </c>
+      <c r="B12" s="2">
+        <v>80280</v>
+      </c>
+      <c r="C12" s="2">
+        <v>80284</v>
+      </c>
+      <c r="D12" s="2">
+        <v>80285</v>
+      </c>
+      <c r="E12" s="2">
+        <v>80286</v>
+      </c>
+      <c r="F12" s="2">
+        <v>80289</v>
+      </c>
+      <c r="G12" s="2">
+        <v>80290</v>
+      </c>
+      <c r="H12" s="2">
+        <v>80292</v>
+      </c>
+      <c r="I12" s="2">
+        <v>80294</v>
+      </c>
+      <c r="J12" s="2">
+        <v>80300</v>
+      </c>
+      <c r="K12" s="2">
+        <v>80304</v>
+      </c>
+      <c r="L12" s="2">
+        <v>80309</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="O3">
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P3">
+      <c r="T12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q3">
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>80448</v>
+      </c>
+      <c r="B13" s="2">
+        <v>80470</v>
+      </c>
+      <c r="C13" s="2">
+        <v>80474</v>
+      </c>
+      <c r="D13" s="2">
+        <v>80475</v>
+      </c>
+      <c r="E13" s="2">
+        <v>80476</v>
+      </c>
+      <c r="F13" s="2">
+        <v>80479</v>
+      </c>
+      <c r="G13" s="2">
+        <v>80480</v>
+      </c>
+      <c r="H13" s="2">
+        <v>80481</v>
+      </c>
+      <c r="I13" s="2">
+        <v>80484</v>
+      </c>
+      <c r="J13" s="2">
+        <v>80490</v>
+      </c>
+      <c r="K13" s="2">
+        <v>80494</v>
+      </c>
+      <c r="L13" s="2">
+        <v>80498</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R3">
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>80638</v>
+      </c>
+      <c r="B14" s="2">
+        <v>80659</v>
+      </c>
+      <c r="C14" s="2">
+        <v>80663</v>
+      </c>
+      <c r="D14" s="2">
+        <v>80664</v>
+      </c>
+      <c r="E14" s="2">
+        <v>80666</v>
+      </c>
+      <c r="F14" s="2">
+        <v>80669</v>
+      </c>
+      <c r="G14" s="2">
+        <v>80670</v>
+      </c>
+      <c r="H14" s="2">
+        <v>80671</v>
+      </c>
+      <c r="I14" s="2">
+        <v>80674</v>
+      </c>
+      <c r="J14" s="2">
+        <v>80679</v>
+      </c>
+      <c r="K14" s="2">
+        <v>80684</v>
+      </c>
+      <c r="L14" s="2">
+        <v>80688</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="S3">
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T3">
+      <c r="S14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U3">
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="V3">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>80827</v>
+      </c>
+      <c r="B15" s="2">
+        <v>80849</v>
+      </c>
+      <c r="C15" s="2">
+        <v>80853</v>
+      </c>
+      <c r="D15" s="2">
+        <v>80854</v>
+      </c>
+      <c r="E15" s="2">
+        <v>80855</v>
+      </c>
+      <c r="F15" s="2">
+        <v>80858</v>
+      </c>
+      <c r="G15" s="2">
+        <v>80859</v>
+      </c>
+      <c r="H15" s="2">
+        <v>80860</v>
+      </c>
+      <c r="I15" s="2">
+        <v>80863</v>
+      </c>
+      <c r="J15" s="2">
+        <v>80869</v>
+      </c>
+      <c r="K15" s="2">
+        <v>80873</v>
+      </c>
+      <c r="L15" s="2">
+        <v>80877</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="U15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="W3">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>90101</v>
-      </c>
-      <c r="B4">
-        <v>90112</v>
-      </c>
-      <c r="C4">
-        <v>90116</v>
-      </c>
-      <c r="D4">
-        <v>90117</v>
-      </c>
-      <c r="E4">
-        <v>90119</v>
-      </c>
-      <c r="F4">
-        <v>90121</v>
-      </c>
-      <c r="G4">
-        <v>90122</v>
-      </c>
-      <c r="H4">
-        <v>90124</v>
-      </c>
-      <c r="I4">
-        <v>90125</v>
-      </c>
-      <c r="J4">
-        <v>90129</v>
-      </c>
-      <c r="K4">
-        <v>90135</v>
-      </c>
-      <c r="L4">
-        <v>90153</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="N4">
+      <c r="V15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="O4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U4">
+      <c r="W15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="V4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>90295</v>
-      </c>
-      <c r="B5">
-        <v>90305</v>
-      </c>
-      <c r="C5">
-        <v>90309</v>
-      </c>
-      <c r="D5">
-        <v>90311</v>
-      </c>
-      <c r="E5">
-        <v>90312</v>
-      </c>
-      <c r="F5">
-        <v>90314</v>
-      </c>
-      <c r="G5">
-        <v>90316</v>
-      </c>
-      <c r="H5">
-        <v>90317</v>
-      </c>
-      <c r="I5">
-        <v>90318</v>
-      </c>
-      <c r="J5">
-        <v>90322</v>
-      </c>
-      <c r="K5">
-        <v>90328</v>
-      </c>
-      <c r="L5">
-        <v>90346</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>90488</v>
-      </c>
-      <c r="B6">
-        <v>90498</v>
-      </c>
-      <c r="C6">
-        <v>90502</v>
-      </c>
-      <c r="D6">
-        <v>90504</v>
-      </c>
-      <c r="E6">
-        <v>90505</v>
-      </c>
-      <c r="F6">
-        <v>90507</v>
-      </c>
-      <c r="G6">
-        <v>90509</v>
-      </c>
-      <c r="H6">
-        <v>90510</v>
-      </c>
-      <c r="I6">
-        <v>90511</v>
-      </c>
-      <c r="J6">
-        <v>90515</v>
-      </c>
-      <c r="K6">
-        <v>90521</v>
-      </c>
-      <c r="L6">
-        <v>90540</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>90681</v>
-      </c>
-      <c r="B7">
-        <v>90691</v>
-      </c>
-      <c r="C7">
-        <v>90695</v>
-      </c>
-      <c r="D7">
-        <v>90697</v>
-      </c>
-      <c r="E7">
-        <v>90698</v>
-      </c>
-      <c r="F7">
-        <v>90700</v>
-      </c>
-      <c r="G7">
-        <v>90702</v>
-      </c>
-      <c r="H7">
-        <v>90703</v>
-      </c>
-      <c r="I7">
-        <v>90704</v>
-      </c>
-      <c r="J7">
-        <v>90708</v>
-      </c>
-      <c r="K7">
-        <v>90714</v>
-      </c>
-      <c r="L7">
-        <v>90732</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>90874</v>
-      </c>
-      <c r="B8">
-        <v>90884</v>
-      </c>
-      <c r="C8">
-        <v>90888</v>
-      </c>
-      <c r="D8">
-        <v>90890</v>
-      </c>
-      <c r="E8">
-        <v>90891</v>
-      </c>
-      <c r="F8">
-        <v>90893</v>
-      </c>
-      <c r="G8">
-        <v>90895</v>
-      </c>
-      <c r="H8">
-        <v>90896</v>
-      </c>
-      <c r="I8">
-        <v>90897</v>
-      </c>
-      <c r="J8">
-        <v>90901</v>
-      </c>
-      <c r="K8">
-        <v>90907</v>
-      </c>
-      <c r="L8">
-        <v>90926</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>91066</v>
-      </c>
-      <c r="B9">
-        <v>91077</v>
-      </c>
-      <c r="C9">
-        <v>91081</v>
-      </c>
-      <c r="D9">
-        <v>91082</v>
-      </c>
-      <c r="E9">
-        <v>91084</v>
-      </c>
-      <c r="F9">
-        <v>91086</v>
-      </c>
-      <c r="G9">
-        <v>91087</v>
-      </c>
-      <c r="H9">
-        <v>91089</v>
-      </c>
-      <c r="I9">
-        <v>91090</v>
-      </c>
-      <c r="J9">
-        <v>91094</v>
-      </c>
-      <c r="K9">
-        <v>91100</v>
-      </c>
-      <c r="L9">
-        <v>91118</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>91259</v>
-      </c>
-      <c r="B10">
-        <v>91270</v>
-      </c>
-      <c r="C10">
-        <v>91274</v>
-      </c>
-      <c r="D10">
-        <v>91275</v>
-      </c>
-      <c r="E10">
-        <v>91277</v>
-      </c>
-      <c r="F10">
-        <v>91278</v>
-      </c>
-      <c r="G10">
-        <v>91280</v>
-      </c>
-      <c r="H10">
-        <v>91282</v>
-      </c>
-      <c r="I10">
-        <v>91283</v>
-      </c>
-      <c r="J10">
-        <v>91287</v>
-      </c>
-      <c r="K10">
-        <v>91293</v>
-      </c>
-      <c r="L10">
-        <v>91311</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>91452</v>
-      </c>
-      <c r="B11">
-        <v>91463</v>
-      </c>
-      <c r="C11">
-        <v>91467</v>
-      </c>
-      <c r="D11">
-        <v>91468</v>
-      </c>
-      <c r="E11">
-        <v>91470</v>
-      </c>
-      <c r="F11">
-        <v>91471</v>
-      </c>
-      <c r="G11">
-        <v>91473</v>
-      </c>
-      <c r="H11">
-        <v>91475</v>
-      </c>
-      <c r="I11">
-        <v>91476</v>
-      </c>
-      <c r="J11">
-        <v>91480</v>
-      </c>
-      <c r="K11">
-        <v>91485</v>
-      </c>
-      <c r="L11">
-        <v>91504</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>91645</v>
-      </c>
-      <c r="B12">
-        <v>91656</v>
-      </c>
-      <c r="C12">
-        <v>91660</v>
-      </c>
-      <c r="D12">
-        <v>91661</v>
-      </c>
-      <c r="E12">
-        <v>91663</v>
-      </c>
-      <c r="F12">
-        <v>91665</v>
-      </c>
-      <c r="G12">
-        <v>91666</v>
-      </c>
-      <c r="H12">
-        <v>91668</v>
-      </c>
-      <c r="I12">
-        <v>91669</v>
-      </c>
-      <c r="J12">
-        <v>91673</v>
-      </c>
-      <c r="K12">
-        <v>91679</v>
-      </c>
-      <c r="L12">
-        <v>91697</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>91838</v>
-      </c>
-      <c r="B13">
-        <v>91849</v>
-      </c>
-      <c r="C13">
-        <v>91853</v>
-      </c>
-      <c r="D13">
-        <v>91854</v>
-      </c>
-      <c r="E13">
-        <v>91856</v>
-      </c>
-      <c r="F13">
-        <v>91858</v>
-      </c>
-      <c r="G13">
-        <v>91860</v>
-      </c>
-      <c r="H13">
-        <v>91861</v>
-      </c>
-      <c r="I13">
-        <v>91862</v>
-      </c>
-      <c r="J13">
-        <v>91866</v>
-      </c>
-      <c r="K13">
-        <v>91872</v>
-      </c>
-      <c r="L13">
-        <v>91890</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>92032</v>
-      </c>
-      <c r="B14">
-        <v>92042</v>
-      </c>
-      <c r="C14">
-        <v>92046</v>
-      </c>
-      <c r="D14">
-        <v>92048</v>
-      </c>
-      <c r="E14">
-        <v>92049</v>
-      </c>
-      <c r="F14">
-        <v>92051</v>
-      </c>
-      <c r="G14">
-        <v>92053</v>
-      </c>
-      <c r="H14">
-        <v>92054</v>
-      </c>
-      <c r="I14">
-        <v>92055</v>
-      </c>
-      <c r="J14">
-        <v>92059</v>
-      </c>
-      <c r="K14">
-        <v>92065</v>
-      </c>
-      <c r="L14">
-        <v>92083</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>92225</v>
-      </c>
-      <c r="B15">
-        <v>92235</v>
-      </c>
-      <c r="C15">
-        <v>92239</v>
-      </c>
-      <c r="D15">
-        <v>92241</v>
-      </c>
-      <c r="E15">
-        <v>92242</v>
-      </c>
-      <c r="F15">
-        <v>92244</v>
-      </c>
-      <c r="G15">
-        <v>92246</v>
-      </c>
-      <c r="H15">
-        <v>92247</v>
-      </c>
-      <c r="I15">
-        <v>92248</v>
-      </c>
-      <c r="J15">
-        <v>92252</v>
-      </c>
-      <c r="K15">
-        <v>92258</v>
-      </c>
-      <c r="L15">
-        <v>92276</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>92417</v>
-      </c>
-      <c r="B16">
-        <v>92428</v>
-      </c>
-      <c r="C16">
-        <v>92432</v>
-      </c>
-      <c r="D16">
-        <v>92433</v>
-      </c>
-      <c r="E16">
-        <v>92435</v>
-      </c>
-      <c r="F16">
-        <v>92437</v>
-      </c>
-      <c r="G16">
-        <v>92439</v>
-      </c>
-      <c r="H16">
-        <v>92440</v>
-      </c>
-      <c r="I16">
-        <v>92441</v>
-      </c>
-      <c r="J16">
-        <v>92445</v>
-      </c>
-      <c r="K16">
-        <v>92451</v>
-      </c>
-      <c r="L16">
-        <v>92469</v>
+      <c r="A16" s="2">
+        <v>81016</v>
+      </c>
+      <c r="B16" s="2">
+        <v>81038</v>
+      </c>
+      <c r="C16" s="2">
+        <v>81042</v>
+      </c>
+      <c r="D16" s="2">
+        <v>81043</v>
+      </c>
+      <c r="E16" s="2">
+        <v>81045</v>
+      </c>
+      <c r="F16" s="2">
+        <v>81048</v>
+      </c>
+      <c r="G16" s="2">
+        <v>81049</v>
+      </c>
+      <c r="H16" s="2">
+        <v>81050</v>
+      </c>
+      <c r="I16" s="2">
+        <v>81053</v>
+      </c>
+      <c r="J16" s="2">
+        <v>81058</v>
+      </c>
+      <c r="K16" s="2">
+        <v>81063</v>
+      </c>
+      <c r="L16" s="2">
+        <v>81067</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>92610</v>
-      </c>
-      <c r="B17">
-        <v>92621</v>
-      </c>
-      <c r="C17">
-        <v>92625</v>
-      </c>
-      <c r="D17">
-        <v>92627</v>
-      </c>
-      <c r="E17">
-        <v>92628</v>
-      </c>
-      <c r="F17">
-        <v>92630</v>
-      </c>
-      <c r="G17">
-        <v>92632</v>
-      </c>
-      <c r="H17">
-        <v>92633</v>
-      </c>
-      <c r="I17">
-        <v>92634</v>
-      </c>
-      <c r="J17">
-        <v>92638</v>
-      </c>
-      <c r="K17">
-        <v>92644</v>
-      </c>
-      <c r="L17">
-        <v>92662</v>
+      <c r="A17" s="2">
+        <v>81207</v>
+      </c>
+      <c r="B17" s="2">
+        <v>81230</v>
+      </c>
+      <c r="C17" s="2">
+        <v>81233</v>
+      </c>
+      <c r="D17" s="2">
+        <v>81235</v>
+      </c>
+      <c r="E17" s="2">
+        <v>81236</v>
+      </c>
+      <c r="F17" s="2">
+        <v>81239</v>
+      </c>
+      <c r="G17" s="2">
+        <v>81240</v>
+      </c>
+      <c r="H17" s="2">
+        <v>81241</v>
+      </c>
+      <c r="I17" s="2">
+        <v>81244</v>
+      </c>
+      <c r="J17" s="2">
+        <v>81249</v>
+      </c>
+      <c r="K17" s="2">
+        <v>81254</v>
+      </c>
+      <c r="L17" s="2">
+        <v>81258</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>92804</v>
-      </c>
-      <c r="B18">
-        <v>92814</v>
-      </c>
-      <c r="C18">
-        <v>92818</v>
-      </c>
-      <c r="D18">
-        <v>92820</v>
-      </c>
-      <c r="E18">
-        <v>92821</v>
-      </c>
-      <c r="F18">
-        <v>92823</v>
-      </c>
-      <c r="G18">
-        <v>92825</v>
-      </c>
-      <c r="H18">
-        <v>92826</v>
-      </c>
-      <c r="I18">
-        <v>92827</v>
-      </c>
-      <c r="J18">
-        <v>92831</v>
-      </c>
-      <c r="K18">
-        <v>92837</v>
-      </c>
-      <c r="L18">
-        <v>92855</v>
+      <c r="A18" s="2">
+        <v>81399</v>
+      </c>
+      <c r="B18" s="2">
+        <v>81420</v>
+      </c>
+      <c r="C18" s="2">
+        <v>81424</v>
+      </c>
+      <c r="D18" s="2">
+        <v>81426</v>
+      </c>
+      <c r="E18" s="2">
+        <v>81427</v>
+      </c>
+      <c r="F18" s="2">
+        <v>81430</v>
+      </c>
+      <c r="G18" s="2">
+        <v>81431</v>
+      </c>
+      <c r="H18" s="2">
+        <v>81432</v>
+      </c>
+      <c r="I18" s="2">
+        <v>81435</v>
+      </c>
+      <c r="J18" s="2">
+        <v>81440</v>
+      </c>
+      <c r="K18" s="2">
+        <v>81445</v>
+      </c>
+      <c r="L18" s="2">
+        <v>81449</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>92996</v>
-      </c>
-      <c r="B19">
-        <v>93007</v>
-      </c>
-      <c r="C19">
-        <v>93011</v>
-      </c>
-      <c r="D19">
-        <v>93012</v>
-      </c>
-      <c r="E19">
-        <v>93014</v>
-      </c>
-      <c r="F19">
-        <v>93015</v>
-      </c>
-      <c r="G19">
-        <v>93017</v>
-      </c>
-      <c r="H19">
-        <v>93019</v>
-      </c>
-      <c r="I19">
-        <v>93020</v>
-      </c>
-      <c r="J19">
-        <v>93024</v>
-      </c>
-      <c r="K19">
-        <v>93030</v>
-      </c>
-      <c r="L19">
-        <v>93048</v>
+      <c r="A19" s="2">
+        <v>81590</v>
+      </c>
+      <c r="B19" s="2">
+        <v>81611</v>
+      </c>
+      <c r="C19" s="2">
+        <v>81615</v>
+      </c>
+      <c r="D19" s="2">
+        <v>81616</v>
+      </c>
+      <c r="E19" s="2">
+        <v>81618</v>
+      </c>
+      <c r="F19" s="2">
+        <v>81621</v>
+      </c>
+      <c r="G19" s="2">
+        <v>81622</v>
+      </c>
+      <c r="H19" s="2">
+        <v>81623</v>
+      </c>
+      <c r="I19" s="2">
+        <v>81626</v>
+      </c>
+      <c r="J19" s="2">
+        <v>81631</v>
+      </c>
+      <c r="K19" s="2">
+        <v>81636</v>
+      </c>
+      <c r="L19" s="2">
+        <v>81640</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>93189</v>
-      </c>
-      <c r="B20">
-        <v>93200</v>
-      </c>
-      <c r="C20">
-        <v>93204</v>
-      </c>
-      <c r="D20">
-        <v>93205</v>
-      </c>
-      <c r="E20">
-        <v>93207</v>
-      </c>
-      <c r="F20">
-        <v>93208</v>
-      </c>
-      <c r="G20">
-        <v>93210</v>
-      </c>
-      <c r="H20">
-        <v>93212</v>
-      </c>
-      <c r="I20">
-        <v>93213</v>
-      </c>
-      <c r="J20">
-        <v>93217</v>
-      </c>
-      <c r="K20">
-        <v>93223</v>
-      </c>
-      <c r="L20">
-        <v>93241</v>
+      <c r="A20" s="2">
+        <v>81780</v>
+      </c>
+      <c r="B20" s="2">
+        <v>81802</v>
+      </c>
+      <c r="C20" s="2">
+        <v>81806</v>
+      </c>
+      <c r="D20" s="2">
+        <v>81807</v>
+      </c>
+      <c r="E20" s="2">
+        <v>81808</v>
+      </c>
+      <c r="F20" s="2">
+        <v>81811</v>
+      </c>
+      <c r="G20" s="2">
+        <v>81812</v>
+      </c>
+      <c r="H20" s="2">
+        <v>81813</v>
+      </c>
+      <c r="I20" s="2">
+        <v>81816</v>
+      </c>
+      <c r="J20" s="2">
+        <v>81822</v>
+      </c>
+      <c r="K20" s="2">
+        <v>81827</v>
+      </c>
+      <c r="L20" s="2">
+        <v>81831</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>93382</v>
-      </c>
-      <c r="B21">
-        <v>93393</v>
-      </c>
-      <c r="C21">
-        <v>93396</v>
-      </c>
-      <c r="D21">
-        <v>93398</v>
-      </c>
-      <c r="E21">
-        <v>93400</v>
-      </c>
-      <c r="F21">
-        <v>93401</v>
-      </c>
-      <c r="G21">
-        <v>93403</v>
-      </c>
-      <c r="H21">
-        <v>93404</v>
-      </c>
-      <c r="I21">
-        <v>93406</v>
-      </c>
-      <c r="J21">
-        <v>93410</v>
-      </c>
-      <c r="K21">
-        <v>93415</v>
-      </c>
-      <c r="L21">
-        <v>93434</v>
+      <c r="A21" s="2">
+        <v>81971</v>
+      </c>
+      <c r="B21" s="2">
+        <v>81993</v>
+      </c>
+      <c r="C21" s="2">
+        <v>81996</v>
+      </c>
+      <c r="D21" s="2">
+        <v>81998</v>
+      </c>
+      <c r="E21" s="2">
+        <v>81999</v>
+      </c>
+      <c r="F21" s="2">
+        <v>82002</v>
+      </c>
+      <c r="G21" s="2">
+        <v>82003</v>
+      </c>
+      <c r="H21" s="2">
+        <v>82004</v>
+      </c>
+      <c r="I21" s="2">
+        <v>82007</v>
+      </c>
+      <c r="J21" s="2">
+        <v>82012</v>
+      </c>
+      <c r="K21" s="2">
+        <v>82017</v>
+      </c>
+      <c r="L21" s="2">
+        <v>82021</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>93575</v>
-      </c>
-      <c r="B22">
-        <v>93586</v>
-      </c>
-      <c r="C22">
-        <v>93590</v>
-      </c>
-      <c r="D22">
-        <v>93591</v>
-      </c>
-      <c r="E22">
-        <v>93593</v>
-      </c>
-      <c r="F22">
-        <v>93594</v>
-      </c>
-      <c r="G22">
-        <v>93596</v>
-      </c>
-      <c r="H22">
-        <v>93598</v>
-      </c>
-      <c r="I22">
-        <v>93599</v>
-      </c>
-      <c r="J22">
-        <v>93603</v>
-      </c>
-      <c r="K22">
-        <v>93608</v>
-      </c>
-      <c r="L22">
-        <v>93627</v>
+      <c r="A22" s="2">
+        <v>82162</v>
+      </c>
+      <c r="B22" s="2">
+        <v>82183</v>
+      </c>
+      <c r="C22" s="2">
+        <v>82187</v>
+      </c>
+      <c r="D22" s="2">
+        <v>82188</v>
+      </c>
+      <c r="E22" s="2">
+        <v>82189</v>
+      </c>
+      <c r="F22" s="2">
+        <v>82192</v>
+      </c>
+      <c r="G22" s="2">
+        <v>82193</v>
+      </c>
+      <c r="H22" s="2">
+        <v>82195</v>
+      </c>
+      <c r="I22" s="2">
+        <v>82197</v>
+      </c>
+      <c r="J22" s="2">
+        <v>82203</v>
+      </c>
+      <c r="K22" s="2">
+        <v>82207</v>
+      </c>
+      <c r="L22" s="2">
+        <v>82212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>82352</v>
+      </c>
+      <c r="B23" s="2">
+        <v>82374</v>
+      </c>
+      <c r="C23" s="2">
+        <v>82378</v>
+      </c>
+      <c r="D23" s="2">
+        <v>82379</v>
+      </c>
+      <c r="E23" s="2">
+        <v>82380</v>
+      </c>
+      <c r="F23" s="2">
+        <v>82383</v>
+      </c>
+      <c r="G23" s="2">
+        <v>82384</v>
+      </c>
+      <c r="H23" s="2">
+        <v>82386</v>
+      </c>
+      <c r="I23" s="2">
+        <v>82388</v>
+      </c>
+      <c r="J23" s="2">
+        <v>82394</v>
+      </c>
+      <c r="K23" s="2">
+        <v>82398</v>
+      </c>
+      <c r="L23" s="2">
+        <v>82403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>82544</v>
+      </c>
+      <c r="B24" s="2">
+        <v>82565</v>
+      </c>
+      <c r="C24" s="2">
+        <v>82569</v>
+      </c>
+      <c r="D24" s="2">
+        <v>82570</v>
+      </c>
+      <c r="E24" s="2">
+        <v>82571</v>
+      </c>
+      <c r="F24" s="2">
+        <v>82574</v>
+      </c>
+      <c r="G24" s="2">
+        <v>82575</v>
+      </c>
+      <c r="H24" s="2">
+        <v>82577</v>
+      </c>
+      <c r="I24" s="2">
+        <v>82579</v>
+      </c>
+      <c r="J24" s="2">
+        <v>82585</v>
+      </c>
+      <c r="K24" s="2">
+        <v>82589</v>
+      </c>
+      <c r="L24" s="2">
+        <v>82594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>82734</v>
+      </c>
+      <c r="B25" s="2">
+        <v>82756</v>
+      </c>
+      <c r="C25" s="2">
+        <v>82760</v>
+      </c>
+      <c r="D25" s="2">
+        <v>82761</v>
+      </c>
+      <c r="E25" s="2">
+        <v>82762</v>
+      </c>
+      <c r="F25" s="2">
+        <v>82765</v>
+      </c>
+      <c r="G25" s="2">
+        <v>82766</v>
+      </c>
+      <c r="H25" s="2">
+        <v>82767</v>
+      </c>
+      <c r="I25" s="2">
+        <v>82770</v>
+      </c>
+      <c r="J25" s="2">
+        <v>82776</v>
+      </c>
+      <c r="K25" s="2">
+        <v>82780</v>
+      </c>
+      <c r="L25" s="2">
+        <v>82784</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>82925</v>
+      </c>
+      <c r="B26" s="2">
+        <v>82947</v>
+      </c>
+      <c r="C26" s="2">
+        <v>82951</v>
+      </c>
+      <c r="D26" s="2">
+        <v>82952</v>
+      </c>
+      <c r="E26" s="2">
+        <v>82953</v>
+      </c>
+      <c r="F26" s="2">
+        <v>82956</v>
+      </c>
+      <c r="G26" s="2">
+        <v>82957</v>
+      </c>
+      <c r="H26" s="2">
+        <v>82958</v>
+      </c>
+      <c r="I26" s="2">
+        <v>82961</v>
+      </c>
+      <c r="J26" s="2">
+        <v>82967</v>
+      </c>
+      <c r="K26" s="2">
+        <v>82971</v>
+      </c>
+      <c r="L26" s="2">
+        <v>82975</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>83116</v>
+      </c>
+      <c r="B27" s="2">
+        <v>83138</v>
+      </c>
+      <c r="C27" s="2">
+        <v>83142</v>
+      </c>
+      <c r="D27" s="2">
+        <v>83143</v>
+      </c>
+      <c r="E27" s="2">
+        <v>83145</v>
+      </c>
+      <c r="F27" s="2">
+        <v>83147</v>
+      </c>
+      <c r="G27" s="2">
+        <v>83149</v>
+      </c>
+      <c r="H27" s="2">
+        <v>83150</v>
+      </c>
+      <c r="I27" s="2">
+        <v>83152</v>
+      </c>
+      <c r="J27" s="2">
+        <v>83158</v>
+      </c>
+      <c r="K27" s="2">
+        <v>83163</v>
+      </c>
+      <c r="L27" s="2">
+        <v>83167</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
